--- a/Excel2Json/Test/stage.xlsx
+++ b/Excel2Json/Test/stage.xlsx
@@ -28,23 +28,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>scenePath</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>stagePath</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -81,6 +65,90 @@
   </si>
   <si>
     <t>pve_map_0104</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[100]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;32</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>scene</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ath</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>stage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ath</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -185,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -196,9 +264,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -209,6 +274,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -519,7 +590,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -542,79 +613,79 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>10001</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>10002</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>10003</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>10001</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="6" t="s">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>10004</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>10002</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>10003</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>10004</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>9</v>
+      <c r="C8" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
